--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="17235" windowHeight="6945"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="11325" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,15 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程李邦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王茜楠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +135,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,6 +253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,16 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>6</v>
       </c>
@@ -450,7 +449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -467,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -484,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -492,106 +491,86 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0.6</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="B9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
       <c r="C10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
-        <v>8.6999999999999993</v>
+        <v>5.46</v>
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>22.7</v>
+        <v>17.96</v>
       </c>
     </row>
   </sheetData>
@@ -602,12 +581,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,12 +594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="11325" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="11325" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>波波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐丽君</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,7 +429,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -494,7 +490,7 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -504,58 +500,50 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>2.2999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
         <v>2</v>
       </c>
     </row>
@@ -566,11 +554,11 @@
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
-        <v>5.46</v>
+        <v>4.46</v>
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>17.96</v>
+        <v>16.96</v>
       </c>
     </row>
   </sheetData>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>廖哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶明君</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,7 +425,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>0.7</v>
@@ -487,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -536,21 +532,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
@@ -558,7 +546,7 @@
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>16.96</v>
+        <v>15.96</v>
       </c>
     </row>
   </sheetData>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11325" windowHeight="6885"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>波波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -210,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1">
         <v>6</v>
       </c>
@@ -441,7 +435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,7 +455,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -469,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -483,13 +477,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -497,48 +491,40 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
@@ -546,7 +532,7 @@
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>15.96</v>
+        <v>15.66</v>
       </c>
     </row>
   </sheetData>
@@ -557,12 +543,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -570,12 +556,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11325" windowHeight="6885"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>爸爸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐国安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +128,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,16 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>6</v>
       </c>
@@ -435,7 +433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +453,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -463,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -477,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -497,34 +495,26 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
@@ -532,7 +522,7 @@
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>15.66</v>
+        <v>15.059999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -543,12 +533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -556,12 +546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>优先还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,7 +415,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -448,12 +444,6 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>0.46</v>
-      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
@@ -463,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -477,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -491,15 +481,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -507,7 +497,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -515,7 +505,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -528,11 +518,11 @@
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
-        <v>4.46</v>
+        <v>3.23</v>
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>15.66</v>
+        <v>14.43</v>
       </c>
     </row>
   </sheetData>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11325" windowHeight="6885"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐国安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廖哥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,18 +55,14 @@
   </si>
   <si>
     <t>余益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姑姑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -236,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,16 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>6</v>
       </c>
@@ -431,7 +425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,7 +439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -453,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>0.53</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -467,62 +461,48 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
-        <v>3.23</v>
+        <v>2.23</v>
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>14.43</v>
+        <v>13.83</v>
       </c>
     </row>
   </sheetData>
@@ -533,12 +513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -546,12 +526,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐国安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廖哥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
   </si>
   <si>
     <t>余益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姑姑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +407,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -453,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>0.53</v>
@@ -467,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -478,18 +470,12 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>1.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -497,32 +483,24 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
-        <v>3.23</v>
+        <v>2.33</v>
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>14.43</v>
+        <v>13.93</v>
       </c>
     </row>
   </sheetData>

--- a/self/买房账本.xlsx
+++ b/self/买房账本.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11325" windowHeight="6885"/>
@@ -11,22 +11,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>慢慢还</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -194,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>6</v>
       </c>
@@ -423,7 +421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -434,24 +432,24 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>0.53</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -459,40 +457,32 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="H14">
         <f>SUM(H2:H13)</f>
@@ -500,7 +490,7 @@
       </c>
       <c r="L14">
         <f>SUM(C14:K14)</f>
-        <v>13.93</v>
+        <v>12.93</v>
       </c>
     </row>
   </sheetData>
@@ -511,12 +501,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -524,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
